--- a/va_facility_data_2025-02-20/Fort McPherson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20McPherson%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort McPherson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20McPherson%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd94eec97a6af4847aa20a30012f799e9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rffba451f11074b83bad3e4d68507579e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbcb3fc475fd240f09dde78b7916676b8"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R84e95b0653634a3b91bb56639bf1330c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R628325cc3751407f9161c0b38072c1e8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R28fa94e5e2084f4ea3885b3f8e84b2a2"/>
   </x:sheets>
 </x:workbook>
 </file>
